--- a/test_files/File3.xlsx
+++ b/test_files/File3.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888C0303-AEF4-4D2A-A3A5-2C35CDB1E7E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{888C0303-AEF4-4D2A-A3A5-2C35CDB1E7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42236C54-7424-4119-9179-F06A3921DA6D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,16 +23,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>info</t>
+    <t>number</t>
   </si>
   <si>
-    <t>infor</t>
+    <t xml:space="preserve">File3 </t>
   </si>
   <si>
-    <t>Name</t>
+    <t>info 3-1</t>
   </si>
   <si>
-    <t>number</t>
+    <t>infor 3-2</t>
   </si>
 </sst>
 </file>
@@ -362,34 +362,34 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.2" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="25.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
       </c>
       <c r="B2">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>130</v>
@@ -407,7 +407,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
